--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -198,7 +198,13 @@
     <t>x</t>
   </si>
   <si>
-    <t>Columna1</t>
+    <t>13-may</t>
+  </si>
+  <si>
+    <t>15-may</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -233,8 +239,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,12 +260,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C29" totalsRowShown="0">
-  <autoFilter ref="A1:C29"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
-    <tableColumn id="3" name="Columna1"/>
+    <tableColumn id="3" name="13-may"/>
+    <tableColumn id="4" name="15-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,18 +569,21 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -582,8 +593,11 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -593,8 +607,11 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -604,8 +621,11 @@
       <c r="C4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -615,8 +635,11 @@
       <c r="C5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -626,8 +649,11 @@
       <c r="C6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -637,8 +663,11 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -648,8 +677,11 @@
       <c r="C8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -659,8 +691,11 @@
       <c r="C9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -670,8 +705,11 @@
       <c r="C10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -681,8 +719,11 @@
       <c r="C11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -692,8 +733,11 @@
       <c r="C12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -703,8 +747,11 @@
       <c r="C13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -714,8 +761,11 @@
       <c r="C14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -723,23 +773,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -749,8 +805,11 @@
       <c r="C18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -760,8 +819,11 @@
       <c r="C19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -771,8 +833,11 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -782,8 +847,11 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -793,8 +861,11 @@
       <c r="C22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -804,16 +875,22 @@
       <c r="C23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -823,8 +900,11 @@
       <c r="C25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -834,8 +914,11 @@
       <c r="C26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -845,8 +928,11 @@
       <c r="C27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -856,8 +942,11 @@
       <c r="C28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -865,6 +954,9 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>58</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>20-may</t>
   </si>
 </sst>
 </file>
@@ -260,13 +263,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+  <autoFilter ref="A1:E29"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
     <tableColumn id="4" name="15-may"/>
+    <tableColumn id="5" name="20-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +573,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +586,11 @@
       <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -597,7 +604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -611,7 +618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -625,7 +632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -639,7 +646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -652,8 +659,11 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -667,7 +677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -681,7 +691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -694,8 +704,11 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -709,7 +722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -723,7 +736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -737,7 +750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -751,7 +764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -765,7 +778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -773,7 +786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -783,8 +796,11 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -795,7 +811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -809,7 +825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -823,7 +839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -836,8 +852,11 @@
       <c r="D20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -851,7 +870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -864,8 +883,11 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -879,7 +901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -890,7 +912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -904,7 +926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -918,7 +940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -932,7 +954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -946,7 +968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,6 +603,9 @@
       <c r="D2" t="s">
         <v>58</v>
       </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -617,6 +620,9 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -631,6 +637,9 @@
       <c r="D4" t="s">
         <v>58</v>
       </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -645,6 +654,9 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -676,6 +688,9 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -690,6 +705,9 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -735,6 +753,9 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -749,6 +770,9 @@
       <c r="D12" t="s">
         <v>58</v>
       </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -763,6 +787,9 @@
       <c r="D13" t="s">
         <v>58</v>
       </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -777,6 +804,9 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -810,6 +840,9 @@
       <c r="D17" t="s">
         <v>58</v>
       </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -824,6 +857,9 @@
       <c r="D18" t="s">
         <v>58</v>
       </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -838,6 +874,9 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -869,6 +908,9 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -900,6 +942,9 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -911,6 +956,9 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -925,6 +973,9 @@
       <c r="D25" t="s">
         <v>58</v>
       </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -939,6 +990,9 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -953,6 +1007,9 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -967,6 +1024,9 @@
       <c r="D28" t="s">
         <v>58</v>
       </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -979,6 +1039,9 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
         <v>58</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -105,12 +105,6 @@
     <t>MAN GING POW HING FRANCESCA HELENA</t>
   </si>
   <si>
-    <t>201418941</t>
-  </si>
-  <si>
-    <t>MONTENEGRO ACOSTA LUIS FERNANDO</t>
-  </si>
-  <si>
     <t>201503575</t>
   </si>
   <si>
@@ -208,6 +202,9 @@
   </si>
   <si>
     <t>20-may</t>
+  </si>
+  <si>
+    <t>22-may</t>
   </si>
 </sst>
 </file>
@@ -263,14 +260,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
-  <autoFilter ref="A1:E29"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
     <tableColumn id="4" name="15-may"/>
     <tableColumn id="5" name="20-may"/>
+    <tableColumn id="6" name="22-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +571,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,16 +579,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -598,16 +599,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -615,16 +619,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -632,16 +639,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -649,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -666,16 +676,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -683,16 +696,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -700,16 +716,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -717,16 +736,19 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -734,13 +756,16 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -748,16 +773,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -765,16 +793,19 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -782,16 +813,19 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -799,24 +833,36 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -824,27 +870,36 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -852,16 +907,19 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -869,16 +927,19 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -886,16 +947,19 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -903,16 +967,19 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -920,47 +987,56 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -968,16 +1044,19 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -985,16 +1064,19 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1002,16 +1084,19 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1019,30 +1104,16 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -51,12 +51,6 @@
     <t>BOHORQUEZ SANTANA CINDY ADRIANA</t>
   </si>
   <si>
-    <t>201508297</t>
-  </si>
-  <si>
-    <t>BRAGANZA ZORILLA SAMUEL MAURICIO</t>
-  </si>
-  <si>
     <t>201417952</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
     <t>DURANGO ESPINOZA DAVID GERMAN</t>
   </si>
   <si>
-    <t>201411880</t>
-  </si>
-  <si>
-    <t>ESPINOZA SUAREZ ANTHONY GABRIEL</t>
-  </si>
-  <si>
     <t>201504652</t>
   </si>
   <si>
@@ -105,12 +93,6 @@
     <t>MAN GING POW HING FRANCESCA HELENA</t>
   </si>
   <si>
-    <t>201503575</t>
-  </si>
-  <si>
-    <t>NAVARRETE MORA ADAN JOSE</t>
-  </si>
-  <si>
     <t>201504956</t>
   </si>
   <si>
@@ -129,24 +111,12 @@
     <t>QUINTANA SOLORZANO JONATHAN ISRAEL</t>
   </si>
   <si>
-    <t>201311420</t>
-  </si>
-  <si>
-    <t>RAMIREZ GARCIA CINDY VIVIANA</t>
-  </si>
-  <si>
     <t>201414290</t>
   </si>
   <si>
     <t>RIOS BENAVIDES DANNY PAUL</t>
   </si>
   <si>
-    <t>201407552</t>
-  </si>
-  <si>
-    <t>SAMANIEGO FIGUEROA THAILY DEL PILAR</t>
-  </si>
-  <si>
     <t>201407592</t>
   </si>
   <si>
@@ -205,6 +175,9 @@
   </si>
   <si>
     <t>22-may</t>
+  </si>
+  <si>
+    <t>27-may</t>
   </si>
 </sst>
 </file>
@@ -227,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,13 +208,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,15 +249,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F28" totalsRowShown="0">
-  <autoFilter ref="A1:F28"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G23" totalsRowShown="0">
+  <autoFilter ref="A1:G23"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
     <tableColumn id="4" name="15-may"/>
     <tableColumn id="5" name="20-may"/>
     <tableColumn id="6" name="22-may"/>
+    <tableColumn id="7" name="27-may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +561,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,19 +569,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -599,19 +592,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -619,19 +615,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -639,19 +638,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -659,36 +661,42 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -696,19 +704,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -716,19 +727,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -736,19 +747,22 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -756,16 +770,19 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -773,19 +790,22 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -793,39 +813,42 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -833,53 +856,68 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -887,39 +925,42 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -927,19 +968,22 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -947,19 +991,22 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -967,19 +1014,19 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -987,133 +1034,42 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -63,12 +63,6 @@
     <t>CANO GUERRERO ISRAEL</t>
   </si>
   <si>
-    <t>201221860</t>
-  </si>
-  <si>
-    <t>DURANGO ESPINOZA DAVID GERMAN</t>
-  </si>
-  <si>
     <t>201504652</t>
   </si>
   <si>
@@ -178,6 +172,9 @@
   </si>
   <si>
     <t>27-may</t>
+  </si>
+  <si>
+    <t>05-jun</t>
   </si>
 </sst>
 </file>
@@ -249,9 +246,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -259,6 +256,7 @@
     <tableColumn id="5" name="20-may"/>
     <tableColumn id="6" name="22-may"/>
     <tableColumn id="7" name="27-may"/>
+    <tableColumn id="8" name="05-jun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,7 +559,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,22 +567,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -592,22 +593,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -615,22 +619,25 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -638,22 +645,25 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -661,19 +671,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -681,22 +691,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -704,22 +717,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -727,19 +740,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -747,22 +766,19 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -770,19 +786,25 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -790,65 +812,74 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -856,22 +887,25 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -879,22 +913,25 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -902,65 +939,71 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -968,22 +1011,25 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -991,22 +1037,22 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1014,19 +1060,25 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1034,42 +1086,19 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -57,12 +57,6 @@
     <t>BURGOS GAYREY KARLA BELEN</t>
   </si>
   <si>
-    <t>201304499</t>
-  </si>
-  <si>
-    <t>CANO GUERRERO ISRAEL</t>
-  </si>
-  <si>
     <t>201504652</t>
   </si>
   <si>
@@ -117,12 +111,6 @@
     <t>SANCHEZ CHINGA DAVID MANUEL</t>
   </si>
   <si>
-    <t>201503869</t>
-  </si>
-  <si>
-    <t>SANCHEZ NARANJO EILEEN BELEN</t>
-  </si>
-  <si>
     <t>201508109</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>15-may</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>20-may</t>
   </si>
   <si>
@@ -175,6 +160,12 @@
   </si>
   <si>
     <t>05-jun</t>
+  </si>
+  <si>
+    <t>10-jun</t>
+  </si>
+  <si>
+    <t>12-jun</t>
   </si>
 </sst>
 </file>
@@ -246,9 +237,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0">
-  <autoFilter ref="A1:H22"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
+  <autoFilter ref="A1:J20"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -257,6 +248,8 @@
     <tableColumn id="6" name="22-may"/>
     <tableColumn id="7" name="27-may"/>
     <tableColumn id="8" name="05-jun"/>
+    <tableColumn id="9" name="10-jun"/>
+    <tableColumn id="10" name="12-jun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -547,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,7 +552,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,25 +560,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -593,25 +592,31 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -619,25 +624,31 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -645,25 +656,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -671,19 +688,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -691,25 +711,31 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -717,22 +743,31 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -740,25 +775,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -766,19 +801,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -786,74 +833,89 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -861,25 +923,31 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -887,25 +955,28 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -913,25 +984,31 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -939,45 +1016,63 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -985,25 +1080,28 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1011,25 +1109,31 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1037,68 +1141,25 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>12-jun</t>
+  </si>
+  <si>
+    <t>17-jun</t>
   </si>
 </sst>
 </file>
@@ -237,9 +240,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
-  <autoFilter ref="A1:J20"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0">
+  <autoFilter ref="A1:K20"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -250,6 +253,7 @@
     <tableColumn id="8" name="05-jun"/>
     <tableColumn id="9" name="10-jun"/>
     <tableColumn id="10" name="12-jun"/>
+    <tableColumn id="11" name="17-jun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -540,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +556,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +587,11 @@
       <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -615,8 +622,11 @@
       <c r="J2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -647,8 +657,11 @@
       <c r="J3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -679,8 +692,11 @@
       <c r="J4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -702,8 +718,11 @@
       <c r="J5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -734,8 +753,11 @@
       <c r="J6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -766,8 +788,11 @@
       <c r="J7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -792,8 +817,11 @@
       <c r="J8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -824,8 +852,11 @@
       <c r="J9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -857,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -885,8 +916,11 @@
       <c r="J11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -914,8 +948,11 @@
       <c r="I12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -946,8 +983,11 @@
       <c r="J13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -975,8 +1015,11 @@
       <c r="I14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1039,8 +1082,11 @@
       <c r="J16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1071,8 +1117,11 @@
       <c r="J17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1100,8 +1149,11 @@
       <c r="J18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1132,8 +1184,11 @@
       <c r="J19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1159,6 +1214,9 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>17-jun</t>
+  </si>
+  <si>
+    <t>19-jun</t>
+  </si>
+  <si>
+    <t>24-jun</t>
   </si>
 </sst>
 </file>
@@ -240,9 +246,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0">
-  <autoFilter ref="A1:K20"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
+  <autoFilter ref="A1:M20"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -254,6 +260,8 @@
     <tableColumn id="9" name="10-jun"/>
     <tableColumn id="10" name="12-jun"/>
     <tableColumn id="11" name="17-jun"/>
+    <tableColumn id="12" name="19-jun"/>
+    <tableColumn id="13" name="24-jun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +564,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +598,14 @@
       <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -625,8 +639,11 @@
       <c r="K2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -660,8 +677,14 @@
       <c r="K3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -695,8 +718,14 @@
       <c r="K4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -721,8 +750,14 @@
       <c r="K5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -756,8 +791,14 @@
       <c r="K6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -791,8 +832,14 @@
       <c r="K7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -820,8 +867,14 @@
       <c r="K8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -855,8 +908,14 @@
       <c r="K9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -887,8 +946,14 @@
       <c r="J10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -919,8 +984,11 @@
       <c r="K11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -951,8 +1019,14 @@
       <c r="K12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -986,8 +1060,14 @@
       <c r="K13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1018,8 +1098,11 @@
       <c r="K14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1050,8 +1133,11 @@
       <c r="J15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1085,8 +1171,14 @@
       <c r="K16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1120,8 +1212,14 @@
       <c r="K17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1152,8 +1250,14 @@
       <c r="K18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1187,8 +1291,14 @@
       <c r="K19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1217,6 +1327,12 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="53">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>24-jun</t>
+  </si>
+  <si>
+    <t>26-jun</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
-  <autoFilter ref="A1:M20"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0">
+  <autoFilter ref="A1:N20"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -262,6 +265,7 @@
     <tableColumn id="11" name="17-jun"/>
     <tableColumn id="12" name="19-jun"/>
     <tableColumn id="13" name="24-jun"/>
+    <tableColumn id="14" name="26-jun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +568,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +608,11 @@
       <c r="M1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -642,8 +649,11 @@
       <c r="L2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -683,8 +693,11 @@
       <c r="M3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -724,8 +737,11 @@
       <c r="M4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -756,8 +772,11 @@
       <c r="M5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -797,8 +816,11 @@
       <c r="M6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -838,8 +860,11 @@
       <c r="M7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -873,8 +898,11 @@
       <c r="M8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -914,8 +942,11 @@
       <c r="M9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -952,8 +983,11 @@
       <c r="M10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -987,8 +1021,11 @@
       <c r="M11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1025,8 +1062,11 @@
       <c r="M12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1066,8 +1106,11 @@
       <c r="M13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1101,8 +1144,11 @@
       <c r="L14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1136,8 +1182,11 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1177,8 +1226,11 @@
       <c r="M16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1218,8 +1270,11 @@
       <c r="M17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1256,8 +1311,11 @@
       <c r="M18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1297,8 +1355,11 @@
       <c r="M19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1333,6 +1394,9 @@
         <v>40</v>
       </c>
       <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="54">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>26-jun</t>
+  </si>
+  <si>
+    <t>10-jul</t>
   </si>
 </sst>
 </file>
@@ -249,9 +252,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0">
-  <autoFilter ref="A1:N20"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O20" totalsRowShown="0">
+  <autoFilter ref="A1:O20"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -266,6 +269,7 @@
     <tableColumn id="12" name="19-jun"/>
     <tableColumn id="13" name="24-jun"/>
     <tableColumn id="14" name="26-jun"/>
+    <tableColumn id="15" name="10-jul"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +572,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +615,11 @@
       <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -652,8 +659,11 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -696,8 +706,11 @@
       <c r="N3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -740,8 +753,11 @@
       <c r="N4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -775,8 +791,11 @@
       <c r="N5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -819,8 +838,11 @@
       <c r="N6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -863,8 +885,11 @@
       <c r="N7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -901,8 +926,11 @@
       <c r="N8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -945,8 +973,11 @@
       <c r="N9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -986,8 +1017,11 @@
       <c r="N10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1024,8 +1058,11 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="N12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1109,8 +1149,11 @@
       <c r="N13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1229,8 +1272,11 @@
       <c r="N16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1273,8 +1319,11 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1314,8 +1363,11 @@
       <c r="N18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1358,8 +1410,11 @@
       <c r="N19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="55">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>10-jul</t>
+  </si>
+  <si>
+    <t>22-jul</t>
   </si>
 </sst>
 </file>
@@ -252,9 +255,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O20" totalsRowShown="0">
-  <autoFilter ref="A1:O20"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P20" totalsRowShown="0">
+  <autoFilter ref="A1:P20"/>
+  <tableColumns count="16">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -270,6 +273,7 @@
     <tableColumn id="13" name="24-jun"/>
     <tableColumn id="14" name="26-jun"/>
     <tableColumn id="15" name="10-jul"/>
+    <tableColumn id="16" name="22-jul"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +576,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,8 +622,11 @@
       <c r="O1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -662,8 +669,11 @@
       <c r="O2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -709,8 +719,11 @@
       <c r="O3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -756,8 +769,11 @@
       <c r="O4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -794,8 +810,11 @@
       <c r="O5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -841,8 +860,11 @@
       <c r="O6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -888,8 +910,11 @@
       <c r="O7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -929,8 +954,11 @@
       <c r="O8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -976,8 +1004,11 @@
       <c r="O9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1061,8 +1092,11 @@
       <c r="O11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1105,8 +1139,11 @@
       <c r="O12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1152,8 +1189,11 @@
       <c r="O13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1190,8 +1230,11 @@
       <c r="N14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1228,8 +1271,11 @@
       <c r="N15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1275,8 +1321,11 @@
       <c r="O16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1322,8 +1371,11 @@
       <c r="O17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1366,8 +1418,11 @@
       <c r="O18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="O19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1452,6 +1510,9 @@
         <v>40</v>
       </c>
       <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="56">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>22-jul</t>
+  </si>
+  <si>
+    <t>24-jul</t>
   </si>
 </sst>
 </file>
@@ -255,9 +258,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P20" totalsRowShown="0">
-  <autoFilter ref="A1:P20"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q20" totalsRowShown="0">
+  <autoFilter ref="A1:Q20"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -274,6 +277,7 @@
     <tableColumn id="14" name="26-jun"/>
     <tableColumn id="15" name="10-jul"/>
     <tableColumn id="16" name="22-jul"/>
+    <tableColumn id="17" name="24-jul"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,10 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +583,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,8 +632,11 @@
       <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -672,8 +682,11 @@
       <c r="P2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -722,8 +735,11 @@
       <c r="P3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -772,8 +788,11 @@
       <c r="P4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -814,7 +833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -863,8 +882,11 @@
       <c r="P6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -913,8 +935,11 @@
       <c r="P7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -957,8 +982,11 @@
       <c r="P8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1035,11 @@
       <c r="P9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1051,8 +1082,11 @@
       <c r="O10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1143,7 +1177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1192,8 +1226,11 @@
       <c r="P13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1233,8 +1270,11 @@
       <c r="P14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1274,8 +1314,11 @@
       <c r="P15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1324,8 +1367,11 @@
       <c r="P16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1374,8 +1420,11 @@
       <c r="P17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1422,7 +1471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1471,8 +1520,11 @@
       <c r="P19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1513,6 +1565,9 @@
         <v>40</v>
       </c>
       <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>24-jul</t>
+  </si>
+  <si>
+    <t>29-jul</t>
   </si>
 </sst>
 </file>
@@ -258,9 +261,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q20" totalsRowShown="0">
-  <autoFilter ref="A1:Q20"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R20" totalsRowShown="0">
+  <autoFilter ref="A1:R20"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -278,6 +281,7 @@
     <tableColumn id="15" name="10-jul"/>
     <tableColumn id="16" name="22-jul"/>
     <tableColumn id="17" name="24-jul"/>
+    <tableColumn id="18" name="29-jul"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +587,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +639,11 @@
       <c r="Q1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -685,8 +692,11 @@
       <c r="Q2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -738,8 +748,11 @@
       <c r="Q3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -791,8 +804,11 @@
       <c r="Q4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -832,8 +848,11 @@
       <c r="P5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -886,7 +905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -938,8 +957,11 @@
       <c r="Q7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1007,11 @@
       <c r="Q8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1038,8 +1063,11 @@
       <c r="Q9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1085,8 +1113,11 @@
       <c r="Q10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1129,8 +1160,11 @@
       <c r="P11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1176,8 +1210,11 @@
       <c r="P12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +1311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1317,8 +1354,11 @@
       <c r="Q15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1370,8 +1410,11 @@
       <c r="Q16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1423,8 +1466,11 @@
       <c r="Q17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1470,8 +1516,11 @@
       <c r="P18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1523,8 +1572,11 @@
       <c r="Q19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1568,6 +1620,9 @@
         <v>40</v>
       </c>
       <c r="Q20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="58">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>29-jul</t>
+  </si>
+  <si>
+    <t>31-jul</t>
   </si>
 </sst>
 </file>
@@ -261,9 +264,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R20" totalsRowShown="0">
-  <autoFilter ref="A1:R20"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S20" totalsRowShown="0">
+  <autoFilter ref="A1:S20"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -282,6 +285,7 @@
     <tableColumn id="16" name="22-jul"/>
     <tableColumn id="17" name="24-jul"/>
     <tableColumn id="18" name="29-jul"/>
+    <tableColumn id="19" name="31-jul"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +591,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +646,11 @@
       <c r="R1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -695,8 +702,11 @@
       <c r="R2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -751,8 +761,11 @@
       <c r="R3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -807,8 +820,11 @@
       <c r="R4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -851,8 +867,11 @@
       <c r="R5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -904,8 +923,11 @@
       <c r="Q6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -960,8 +982,11 @@
       <c r="R7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1035,11 @@
       <c r="R8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1094,11 @@
       <c r="R9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1116,8 +1147,11 @@
       <c r="R10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1163,8 +1197,11 @@
       <c r="R11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1213,8 +1250,11 @@
       <c r="R12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1266,8 +1306,11 @@
       <c r="Q13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1310,8 +1353,11 @@
       <c r="Q14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1357,8 +1403,11 @@
       <c r="R15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1413,8 +1462,11 @@
       <c r="R16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1469,8 +1521,11 @@
       <c r="R17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1519,8 +1574,11 @@
       <c r="R18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="R19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1623,6 +1684,9 @@
         <v>40</v>
       </c>
       <c r="R20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="60">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>31-jul</t>
+  </si>
+  <si>
+    <t>05-ago</t>
+  </si>
+  <si>
+    <t>07-ago</t>
   </si>
 </sst>
 </file>
@@ -264,9 +270,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S20" totalsRowShown="0">
-  <autoFilter ref="A1:S20"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U20" totalsRowShown="0">
+  <autoFilter ref="A1:U20"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -286,6 +292,8 @@
     <tableColumn id="17" name="24-jul"/>
     <tableColumn id="18" name="29-jul"/>
     <tableColumn id="19" name="31-jul"/>
+    <tableColumn id="20" name="05-ago"/>
+    <tableColumn id="21" name="07-ago"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,7 +599,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +657,14 @@
       <c r="S1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -705,8 +719,11 @@
       <c r="S2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -764,8 +781,11 @@
       <c r="S3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -823,8 +843,11 @@
       <c r="S4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -871,7 +894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="S6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -985,8 +1011,11 @@
       <c r="S7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1097,8 +1126,11 @@
       <c r="S9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1200,8 +1232,11 @@
       <c r="S11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1253,8 +1288,14 @@
       <c r="S12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1309,8 +1350,11 @@
       <c r="S13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1400,11 @@
       <c r="S14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1465,8 +1512,11 @@
       <c r="S16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1524,8 +1574,11 @@
       <c r="S17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1636,8 +1689,11 @@
       <c r="S19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1687,6 +1743,9 @@
         <v>40</v>
       </c>
       <c r="S20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -590,7 +590,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,6 +784,9 @@
       <c r="T3" t="s">
         <v>40</v>
       </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -846,6 +849,9 @@
       <c r="T4" t="s">
         <v>40</v>
       </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -952,6 +958,9 @@
       <c r="T6" t="s">
         <v>40</v>
       </c>
+      <c r="U6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1014,6 +1023,9 @@
       <c r="T7" t="s">
         <v>40</v>
       </c>
+      <c r="U7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1129,6 +1141,9 @@
       <c r="T9" t="s">
         <v>40</v>
       </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1182,6 +1197,9 @@
       <c r="S10" t="s">
         <v>40</v>
       </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1235,6 +1253,9 @@
       <c r="T11" t="s">
         <v>40</v>
       </c>
+      <c r="U11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1353,6 +1374,9 @@
       <c r="T13" t="s">
         <v>40</v>
       </c>
+      <c r="U13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1403,6 +1427,9 @@
       <c r="T14" t="s">
         <v>40</v>
       </c>
+      <c r="U14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1453,6 +1480,9 @@
       <c r="S15" t="s">
         <v>40</v>
       </c>
+      <c r="U15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1515,8 +1545,11 @@
       <c r="T16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1577,8 +1610,11 @@
       <c r="T17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1692,8 +1728,11 @@
       <c r="T19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1746,6 +1785,9 @@
         <v>40</v>
       </c>
       <c r="T20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="61">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>07-ago</t>
+  </si>
+  <si>
+    <t>12-ago</t>
   </si>
 </sst>
 </file>
@@ -270,9 +273,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U20" totalsRowShown="0">
-  <autoFilter ref="A1:U20"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V20" totalsRowShown="0">
+  <autoFilter ref="A1:V20"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -294,6 +297,7 @@
     <tableColumn id="19" name="31-jul"/>
     <tableColumn id="20" name="05-ago"/>
     <tableColumn id="21" name="07-ago"/>
+    <tableColumn id="22" name="12-ago"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +603,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +667,11 @@
       <c r="U1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -722,8 +729,11 @@
       <c r="T2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -787,8 +797,11 @@
       <c r="U3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -852,8 +865,11 @@
       <c r="U4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -899,8 +915,11 @@
       <c r="S5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -961,8 +980,11 @@
       <c r="U6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1079,8 +1101,11 @@
       <c r="S8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1144,8 +1169,11 @@
       <c r="U9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1200,8 +1228,11 @@
       <c r="U10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1256,8 +1287,11 @@
       <c r="U11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1315,8 +1349,11 @@
       <c r="U12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1377,8 +1414,11 @@
       <c r="U13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1430,8 +1470,11 @@
       <c r="U14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1483,8 +1526,11 @@
       <c r="U15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1548,8 +1594,11 @@
       <c r="U16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1613,8 +1662,11 @@
       <c r="U17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1667,7 +1719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1731,8 +1783,11 @@
       <c r="U19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1788,6 +1843,9 @@
         <v>40</v>
       </c>
       <c r="U20" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" t="s">
         <v>40</v>
       </c>
     </row>

--- a/asistencia/Paralelo 2.xlsx
+++ b/asistencia/Paralelo 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="63">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>12-ago</t>
+  </si>
+  <si>
+    <t>19-ago</t>
+  </si>
+  <si>
+    <t>21-ago</t>
   </si>
 </sst>
 </file>
@@ -273,9 +279,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V20" totalsRowShown="0">
-  <autoFilter ref="A1:V20"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X20" totalsRowShown="0">
+  <autoFilter ref="A1:X20"/>
+  <tableColumns count="24">
     <tableColumn id="1" name="MATRICULA"/>
     <tableColumn id="2" name="NOMBRE_ESTUDIANTE"/>
     <tableColumn id="3" name="13-may"/>
@@ -298,6 +304,8 @@
     <tableColumn id="20" name="05-ago"/>
     <tableColumn id="21" name="07-ago"/>
     <tableColumn id="22" name="12-ago"/>
+    <tableColumn id="23" name="19-ago"/>
+    <tableColumn id="24" name="21-ago"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -588,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,7 +611,7 @@
     <col min="2" max="2" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +678,14 @@
       <c r="V1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -732,8 +746,11 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -800,8 +817,14 @@
       <c r="V3" t="s">
         <v>40</v>
       </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -868,8 +891,14 @@
       <c r="V4" t="s">
         <v>40</v>
       </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -919,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -983,8 +1012,14 @@
       <c r="V6" t="s">
         <v>40</v>
       </c>
+      <c r="W6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1048,8 +1083,14 @@
       <c r="U7" t="s">
         <v>40</v>
       </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1104,8 +1145,11 @@
       <c r="V8" t="s">
         <v>40</v>
       </c>
+      <c r="W8" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1172,8 +1216,14 @@
       <c r="V9" t="s">
         <v>40</v>
       </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1231,8 +1281,11 @@
       <c r="V10" t="s">
         <v>40</v>
       </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1291,7 +1344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1352,8 +1405,14 @@
       <c r="V12" t="s">
         <v>40</v>
       </c>
+      <c r="W12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1417,8 +1476,14 @@
       <c r="V13" t="s">
         <v>40</v>
       </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1473,8 +1538,11 @@
       <c r="V14" t="s">
         <v>40</v>
       </c>
+      <c r="W14" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +1598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1597,8 +1665,14 @@
       <c r="V16" t="s">
         <v>40</v>
       </c>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1665,8 +1739,14 @@
       <c r="V17" t="s">
         <v>40</v>
       </c>
+      <c r="W17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1718,8 +1798,11 @@
       <c r="S18" t="s">
         <v>40</v>
       </c>
+      <c r="X18" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1786,8 +1869,14 @@
       <c r="V19" t="s">
         <v>40</v>
       </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1846,6 +1935,12 @@
         <v>40</v>
       </c>
       <c r="V20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s">
         <v>40</v>
       </c>
     </row>
